--- a/tgbot/data/template.xlsx
+++ b/tgbot/data/template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lysko-av\Home\SharedFolder\python\tg\MoneyTrackingBot\tgbot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninzy\Home\projects\Python\MoneyTrackerBot\tgbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E22773F-0957-499C-8091-1263D61568D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Статистика трат" sheetId="1" r:id="rId1"/>
@@ -24,9 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Тип траты</t>
-  </si>
-  <si>
     <t>Сумма</t>
   </si>
   <si>
@@ -35,11 +33,14 @@
   <si>
     <t>Описание</t>
   </si>
+  <si>
+    <t>Категория</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
@@ -424,92 +425,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:D2"/>
+  <autoFilter ref="B2:D2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>